--- a/Backend/Model Metrics/classification_report_rfc_CAP2_vent.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_CAP2_vent.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9765100671140939</v>
+        <v>0.9710982658959537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8765060240963856</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9238095238095239</v>
+        <v>0.9138712601994561</v>
       </c>
       <c r="E2" t="n">
-        <v>332</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2264150943396226</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.631578947368421</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4808743169398908</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8522550544323484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8522550544323484</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8522550544323484</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8522550544323484</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6014625807268583</v>
+        <v>0.6629684877866866</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7540424857324033</v>
+        <v>0.8043882052472719</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.6973727885696734</v>
       </c>
       <c r="E5" t="n">
-        <v>351</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9359066355394074</v>
+        <v>0.914551899151174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8522550544323484</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8918464251797585</v>
+        <v>0.8741405919999004</v>
       </c>
       <c r="E6" t="n">
-        <v>351</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/Model Metrics/classification_report_rfc_CAP2_vent.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_CAP2_vent.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9710982658959537</v>
+        <v>0.9691714836223507</v>
       </c>
       <c r="C2" t="n">
-        <v>0.863013698630137</v>
+        <v>0.8613013698630136</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9138712601994561</v>
+        <v>0.9120580235720761</v>
       </c>
       <c r="E2" t="n">
         <v>584</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3467741935483871</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4808743169398908</v>
+        <v>0.4699453551912569</v>
       </c>
       <c r="E3" t="n">
         <v>59</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8522550544323484</v>
+        <v>0.8491446345256609</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8522550544323484</v>
+        <v>0.8491446345256609</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8522550544323484</v>
+        <v>0.8491446345256609</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8522550544323484</v>
+        <v>0.8491446345256609</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6629684877866866</v>
+        <v>0.6579728385853689</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8043882052472719</v>
+        <v>0.7950574645925237</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6973727885696734</v>
+        <v>0.6910016893816665</v>
       </c>
       <c r="E5" t="n">
         <v>643</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.914551899151174</v>
+        <v>0.9120619344553774</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8522550544323484</v>
+        <v>0.8491446345256609</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8741405919999004</v>
+        <v>0.8714909202525297</v>
       </c>
       <c r="E6" t="n">
         <v>643</v>
